--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -3,31 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,80 +375,2162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>ID</v>
       </c>
       <c r="B1" t="str">
-        <v>First Name</v>
+        <v>EmployeeType</v>
       </c>
       <c r="C1" t="str">
-        <v>Last Name</v>
+        <v>EmployeeId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="G1" t="str">
+        <v>FTE</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="B2" t="str">
-        <v>John</v>
+        <v>TandemG</v>
       </c>
       <c r="C2" t="str">
-        <v>Doe</v>
+        <v>207685322</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cohen Aharon</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="F2" t="str">
+        <v>aharon.cohen@tandemg.com</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B3" t="str">
-        <v>Jane</v>
+        <v>TandemG</v>
       </c>
       <c r="C3" t="str">
-        <v>Smith</v>
+        <v>306005349</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Milich Alex</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="F3" t="str">
+        <v>alex.milich@tandemg.com</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="B4" t="str">
-        <v>Michael</v>
+        <v>Contractor</v>
       </c>
       <c r="C4" t="str">
-        <v>Johnson</v>
+        <v>0922577647</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Gazukin Alexander</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F4" t="str">
+        <v>alexander.gazukin@tandemg.com</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="B5" t="str">
-        <v>Emily</v>
+        <v>Latvia</v>
       </c>
       <c r="C5" t="str">
-        <v>Williams</v>
+        <v>220572-12715</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Grishchenko Alexander</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F5" t="str">
+        <v>alexander.grishchenko@tandemg.com</v>
+      </c>
+      <c r="G5">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="B6" t="str">
-        <v>David</v>
+        <v>Contractor</v>
       </c>
       <c r="C6" t="str">
-        <v>Brown</v>
+        <v>345783732</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Kratov Alexander</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F6" t="str">
+        <v>alexander.kratov@tandemg.com</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>92</v>
+      </c>
+      <c r="B7" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C7" t="str">
+        <v>300477007</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Taubenblatt Ariel</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ariel.taubenblatt@tandemg.com</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>386</v>
+      </c>
+      <c r="B8" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C8" t="str">
+        <v>318448255</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Naalwa Aubida</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="F8" t="str">
+        <v>aubida.naalwa@tandemg.com</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>269</v>
+      </c>
+      <c r="B9" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C9" t="str">
+        <v>211660857</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Weingarten Ayala</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Epstein Pesya</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ayala.weingarten@tandemg.com</v>
+      </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>381</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C10" t="str">
+        <v>40860942</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Zacharish Barak</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F10" t="str">
+        <v>barak.zacharish@tandemg.com</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>432</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C11" t="str">
+        <v>203677505</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Grinshpan Ben</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F11" t="str">
+        <v>ben.grinshpan@tandemg.com</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>409</v>
+      </c>
+      <c r="B12" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C12" t="str">
+        <v>208386227</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Rozovski Boaz</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F12" t="str">
+        <v>boaz.rozovski@tandemg.com</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>444</v>
+      </c>
+      <c r="B13" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C13" t="str">
+        <v>303470256</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Ratner Boris</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F13" t="str">
+        <v>boris.ratner@tandemg.com</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>207</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C14" t="str">
+        <v>208763110</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Levitz Chaya</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F14" t="str">
+        <v>chaya.levitz@tandemg.com</v>
+      </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>449</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C15" t="str">
+        <v>25843234</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Sablinskas Dainius</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F15" t="str">
+        <v>dainius.sablinskas@tandemg.com</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>433</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C16" t="str">
+        <v>024355893</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F16" t="str">
+        <v>dan.bechar@tandemg.com</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>454</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C17" t="str">
+        <v>99999999</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Krasnov Dan</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Feldman Ilya</v>
+      </c>
+      <c r="F17" t="str">
+        <v>dan.krasnov@tandemg.com</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>425</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C18" t="str">
+        <v>207949058</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Haimov Daniel</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Epstein Pesya</v>
+      </c>
+      <c r="F18" t="str">
+        <v>daniel.haimov@tandemg.com</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>361</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C19" t="str">
+        <v>327071148</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Gregoryev Dennis</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F19" t="str">
+        <v>dennis.gregoryev@tandemg.com</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>390</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1388616</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Martinovs Dmitrijs</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F20" t="str">
+        <v>dmitrijs.martinovs@tandemg.com</v>
+      </c>
+      <c r="G20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>441</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C21" t="str">
+        <v>24120020732</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Novikovs Dmitrijs</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F21" t="str">
+        <v>dmitrijs.novikovs@tandemg.com</v>
+      </c>
+      <c r="G21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C22" t="str">
+        <v>027817725</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Moshe Dror</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="F22" t="str">
+        <v>dror.moshe@tandemg.com</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>453</v>
+      </c>
+      <c r="B23" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C23" t="str">
+        <v>25028325</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Daabul Dudi</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F23" t="str">
+        <v>dudi.daabul@tandemg.com</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C24" t="str">
+        <v>017394230</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Printac Eduardo</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F24" t="str">
+        <v>eduardo@tandemg.com</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>259</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C25" t="str">
+        <v>312089105</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Naduyev Eli</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>eli.naduyev@tandemg.com</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>423</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C26" t="str">
+        <v>312461940</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Tessler Eliran</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="F26" t="str">
+        <v>eliran.tessler@tandemg.com</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>452</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C27" t="str">
+        <v>315210955</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Morgenstern Elisheva</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="F27" t="str">
+        <v>elisheva.morgenstern@tandemg.com</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>448</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C28" t="str">
+        <v>033077777</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Elat Eran</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Perez Maor</v>
+      </c>
+      <c r="F28" t="str">
+        <v>eran.eilat@tandemg.com</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C29" t="str">
+        <v>024120446</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F29" t="str">
+        <v>erez.shabtai@tandemg.com</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>408</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C30" t="str">
+        <v>220901-20118</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Romāns Filips</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F30" t="str">
+        <v>filips.romans@tandemg.com</v>
+      </c>
+      <c r="G30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>370</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C31" t="str">
+        <v>345179873</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Medeiros Gabriel</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F31" t="str">
+        <v>gabriel.medeiros@tandemg.com</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C32" t="str">
+        <v>029072840</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>gil@tandemg.com</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>180</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C33" t="str">
+        <v>66469610</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Yahav Golan</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F33" t="str">
+        <v>golan.yahav@tandemg.com</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>179</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C34" t="str">
+        <v>340951037</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Shneier Grigorii</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F34" t="str">
+        <v>grigorii.shneier@tandemg.com</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>428</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C35" t="str">
+        <v>311122824</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Peled Ido</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F35" t="str">
+        <v>ido.peled@tandemg.com</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>394</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C36" t="str">
+        <v>209487321</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Mekonen Igal</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F36" t="str">
+        <v>igal.mekonen@tandemg.com</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>194</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C37" t="str">
+        <v>24544603</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Hitin Ilil</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ilil.hitin@tandemg.com</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>225</v>
+      </c>
+      <c r="B38" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C38" t="str">
+        <v>306975608</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Feldman Ilya</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ilya.feldman@tandemg.com</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>213</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C39" t="str">
+        <v>310201611</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Mark Tavger Ilya</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="F39" t="str">
+        <v>ilya.tavger@tandemg.com</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>424</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C40" t="str">
+        <v>30719941</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Sokirianski Ira</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F40" t="str">
+        <v>ira.sokirianski@tandemg.com</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>414</v>
+      </c>
+      <c r="B41" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C41" t="str">
+        <v>017409921</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Gol Itzik</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F41" t="str">
+        <v>itzik.gol@tandemg.com</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>220</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C42" t="str">
+        <v>310774-12700</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Soloveckis Jurijs</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F42" t="str">
+        <v>jurijs.soloveckis@tandemg.com</v>
+      </c>
+      <c r="G42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>455</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C43" t="str">
+        <v>28068911025</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Polevskis Juris</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F43" t="str">
+        <v>juris.polevskis@tandemg.com</v>
+      </c>
+      <c r="G43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>442</v>
+      </c>
+      <c r="B44" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C44" t="str">
+        <v>321087942</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Axelrod Katya</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Brenner Neta</v>
+      </c>
+      <c r="F44" t="str">
+        <v>katya.axelrod@tandemg.com</v>
+      </c>
+      <c r="G44">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>233</v>
+      </c>
+      <c r="B45" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C45" t="str">
+        <v>304984974</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Barkai Lior</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="F45" t="str">
+        <v>lior.barkai@tandemg.com</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>439</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C46" t="str">
+        <v>302679402</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Halevy Maor</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="F46" t="str">
+        <v>maor.halevy@tandemg.com</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C47" t="str">
+        <v>034552091</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Perez Maor</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F47" t="str">
+        <v>maor@tandemg.com</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C48" t="str">
+        <v>308749357</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Belshov Marina</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F48" t="str">
+        <v>marina.belshov@tandemg.com</v>
+      </c>
+      <c r="G48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C49" t="str">
+        <v>303629109</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F49" t="str">
+        <v>menachem.shapira@tandemg.com</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>450</v>
+      </c>
+      <c r="B50" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C50" t="str">
+        <v>206241184</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Leichter Mashiach Merav</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Brenner Neta</v>
+      </c>
+      <c r="F50" t="str">
+        <v>merav.leichter@tandemg.com</v>
+      </c>
+      <c r="G50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>445</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Employment Agency</v>
+      </c>
+      <c r="C51" t="str">
+        <v>212155493</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Abargel Michal</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F51" t="str">
+        <v>michal.abargel@tandemg.com</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C52" t="str">
+        <v>060867538</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Zuberi Moria</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F52" t="str">
+        <v>moria.zuberi@tandemg.com</v>
+      </c>
+      <c r="G52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>173</v>
+      </c>
+      <c r="B53" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C53" t="str">
+        <v>201460581</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Galandor Moshe Yakov</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F53" t="str">
+        <v>moshe.galandor@tandemg.com</v>
+      </c>
+      <c r="G53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>31</v>
+      </c>
+      <c r="B54" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C54" t="str">
+        <v>028849024</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Brenner Neta</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F54" t="str">
+        <v>neta.brenner@tandemg.com</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C55" t="str">
+        <v>327239505</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Bendanan Nissim</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="F55" t="str">
+        <v>nissim.bendanan@tandemg.com</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>33</v>
+      </c>
+      <c r="B56" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C56" t="str">
+        <v>039302328</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Chen Noam</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="F56" t="str">
+        <v>noam.chen@tandemg.com</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>422</v>
+      </c>
+      <c r="B57" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C57" t="str">
+        <v>206829079</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Elankry Noy</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="F57" t="str">
+        <v>noy.elankry@tandemg.com</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>61</v>
+      </c>
+      <c r="B58" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C58" t="str">
+        <v>301302071</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Yavin Noy</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="F58" t="str">
+        <v>noy.yavin@tandemg.com</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>405</v>
+      </c>
+      <c r="B59" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C59" t="str">
+        <v>323326959</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Krudu Oksana</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Printac Eduardo</v>
+      </c>
+      <c r="F59" t="str">
+        <v>oksana.krudu@tandemg.com</v>
+      </c>
+      <c r="G59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>206</v>
+      </c>
+      <c r="B60" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C60" t="str">
+        <v>311448443</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Steinmetz Ori</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="F60" t="str">
+        <v>ori.steinmetz@tandemg.com</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>268</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C61" t="str">
+        <v>205845365</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Yosefi Ori</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F61" t="str">
+        <v>ori.yosefi@tandemg.com</v>
+      </c>
+      <c r="G61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>438</v>
+      </c>
+      <c r="B62" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C62" t="str">
+        <v>201587789</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Shifman Oron</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="F62" t="str">
+        <v>oron.shifman@tandemg.com</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>208</v>
+      </c>
+      <c r="B63" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C63" t="str">
+        <v>315175125</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Epstein Pesya</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>pesya.epstein@tandemg.com</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>443</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C64" t="str">
+        <v>016082248</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Novakovic petar</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F64" t="str">
+        <v>petar.novakovic@tandemg.com</v>
+      </c>
+      <c r="G64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="B65" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C65" t="str">
+        <v>022257844</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Orni Rimon</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="F65" t="str">
+        <v>rimon.orni@tandemg.com</v>
+      </c>
+      <c r="G65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>369</v>
+      </c>
+      <c r="B66" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C66" t="str">
+        <v>314539875</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F66" t="str">
+        <v>rustam.bagirov@tandemg.com</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C67" t="str">
+        <v>025328543</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F67" t="str">
+        <v>sagi@tandemg.com</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>209</v>
+      </c>
+      <c r="B68" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C68" t="str">
+        <v>038522322</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Peled Sarit</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F68" t="str">
+        <v>sarit.peled@tandemg.com</v>
+      </c>
+      <c r="G68">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>219</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C69" t="str">
+        <v>301177-11381</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Bechar Dan</v>
+      </c>
+      <c r="F69" t="str">
+        <v>sergejs.hatinecs@tandemg.com</v>
+      </c>
+      <c r="G69">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>44</v>
+      </c>
+      <c r="B70" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C70" t="str">
+        <v>028454064</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Hadad Sharon</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F70" t="str">
+        <v>sharon@tandemg.com</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>447</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C71" t="str">
+        <v>311332597</v>
+      </c>
+      <c r="D71" t="str">
+        <v>manasherov shay</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F71" t="str">
+        <v>shay.manasherov@tandemg.com</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>396</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C72" t="str">
+        <v>332486118</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Shtekelmacher Shay</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F72" t="str">
+        <v>shay.shtekel@tandemg.com</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>362</v>
+      </c>
+      <c r="B73" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C73" t="str">
+        <v>322397456</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Rubanowitz Shira</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Peled Sarit</v>
+      </c>
+      <c r="F73" t="str">
+        <v>shira.rubanowitz@tandemg.com</v>
+      </c>
+      <c r="G73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>181</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C74" t="str">
+        <v>306547563</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Karantsov Stas</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F74" t="str">
+        <v>stas.karantsov@tandemg.com</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C75" t="str">
+        <v>204280259</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Abu Hassuna Suha</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Yavin Noy</v>
+      </c>
+      <c r="F75" t="str">
+        <v>suha.hassuna@tandemg.com</v>
+      </c>
+      <c r="G75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>47</v>
+      </c>
+      <c r="B76" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C76" t="str">
+        <v>025151598</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Zar Sagi</v>
+      </c>
+      <c r="F76" t="str">
+        <v>tal.halamish@tandemg.com</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>250</v>
+      </c>
+      <c r="B77" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C77" t="str">
+        <v>314022831</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Kornblum Tal</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F77" t="str">
+        <v>tal.kornblum@tandemg.com</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>456</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C78" t="str">
+        <v>99102711916</v>
+      </c>
+      <c r="D78" t="str">
+        <v>kliavin valery</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F78" t="str">
+        <v>valery.kliavin@tandemg.com</v>
+      </c>
+      <c r="G78">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>224</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C79" t="str">
+        <v>170962-11225</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Vityukov Vasily</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Hatinecs Sergejs</v>
+      </c>
+      <c r="F79" t="str">
+        <v>vasily.vityukov@tandemg.com</v>
+      </c>
+      <c r="G79">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>436</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C80" t="str">
+        <v>308748276</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Kushnir Vitali</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F80" t="str">
+        <v>vitali.kushnir@tandemg.com</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>380</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C81" t="str">
+        <v>332555254</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Itzhaki Yair</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F81" t="str">
+        <v>yair.itzhaki@tandemg.com</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>245</v>
+      </c>
+      <c r="B82" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C82" t="str">
+        <v>319242756</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Verzhik Yana</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Halamish Tal</v>
+      </c>
+      <c r="F82" t="str">
+        <v>yana.verzhik@tandemg.com</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>410</v>
+      </c>
+      <c r="B83" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C83" t="str">
+        <v>204620942</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Levin Yanir</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="F83" t="str">
+        <v>yanir.levin@tandemg.com</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>407</v>
+      </c>
+      <c r="B84" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C84" t="str">
+        <v>312263031</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Peretz Yehonathan</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="F84" t="str">
+        <v>yehonathan.peretz@tandemg.com</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>246</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C85" t="str">
+        <v>301759692</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Noiman Yehuda</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F85" t="str">
+        <v>yehuda.noiman@tandemg.com</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>249</v>
+      </c>
+      <c r="B86" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C86" t="str">
+        <v>322548538</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Shapira Yocheved</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Epstein Pesya</v>
+      </c>
+      <c r="F86" t="str">
+        <v>yocheved.shapira@tandemg.com</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>257</v>
+      </c>
+      <c r="B87" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C87" t="str">
+        <v>308551514</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Agranov Yogev</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F87" t="str">
+        <v>yogev.agranov@tandemg.com</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>265</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C88" t="str">
+        <v>029662798</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Zaig Yossef</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F88" t="str">
+        <v>yossef.zaig@tandemg.com</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>387</v>
+      </c>
+      <c r="B89" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C89" t="str">
+        <v>311210751</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Ozeri Yossi</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Bagirov Rustam</v>
+      </c>
+      <c r="F89" t="str">
+        <v>yossi.ozeri@tandemg.com</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>451</v>
+      </c>
+      <c r="B90" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C90" t="str">
+        <v>54654785</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Pruzanski Yossi</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Shabtai Erez</v>
+      </c>
+      <c r="F90" t="str">
+        <v>yossi.pruzanski@tandemg.com</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>178</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C91" t="str">
+        <v>307351510</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Mizrahi Gil</v>
+      </c>
+      <c r="F91" t="str">
+        <v>yuri.trainis@tandemg.com</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>403</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Contractor</v>
+      </c>
+      <c r="C92" t="str">
+        <v>319049516</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Shamis Yuval</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Trainis Yuri</v>
+      </c>
+      <c r="F92" t="str">
+        <v>yuval.shamis@tandemg.com</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>210</v>
+      </c>
+      <c r="B93" t="str">
+        <v>TandemG</v>
+      </c>
+      <c r="C93" t="str">
+        <v>315121988</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Meir Zipora</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Shapira Menachem</v>
+      </c>
+      <c r="F93" t="str">
+        <v>zipora.meir@tandemg.com</v>
+      </c>
+      <c r="G93">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -437,7 +437,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -471,7 +471,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-5.25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>90</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.62</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>90</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>90</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-5.54</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>97</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>87</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7.67</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>14.95</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-6.17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>100</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>100</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>80</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>9.34</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>85</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-5.02</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>9.66</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>100</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-3.39</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>100</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>100</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>100</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>100</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-2.24</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>100</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>100</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>100</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>100</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>100</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>8.05</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>100</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E83">
         <v>1</v>
